--- a/ACTIVIDADES/ACTIVIDAD 4/Ejercicio 13.6 y 13.7.xlsx
+++ b/ACTIVIDADES/ACTIVIDAD 4/Ejercicio 13.6 y 13.7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UADER\Tercero\Probabilidad y Estadistica\Guia 1\ACTIVIDADES\ACTIVIDAD 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonzalo\Desktop\tercero\Probabilidad y estadistica\Prob-y-Estadistica\ACTIVIDADES\ACTIVIDAD 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5761142-2D9C-4572-81FD-B95C0593E227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91249B0C-091C-415E-A0E5-1A1887331547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3810" yWindow="3810" windowWidth="22365" windowHeight="11385" xr2:uid="{2498C395-65F2-4DD7-B4AB-EFB51FB7D86C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2498C395-65F2-4DD7-B4AB-EFB51FB7D86C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
     <t>Coeficiente de sesgo</t>
   </si>
   <si>
-    <t>Es asimetrica por derecha por sesgo  mayor a 0</t>
+    <t>Como el coeficiente es positivo, la distribucion es asimetrica por derecha</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +579,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">

--- a/ACTIVIDADES/ACTIVIDAD 4/Ejercicio 13.6 y 13.7.xlsx
+++ b/ACTIVIDADES/ACTIVIDAD 4/Ejercicio 13.6 y 13.7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonzalo\Desktop\tercero\Probabilidad y estadistica\Prob-y-Estadistica\ACTIVIDADES\ACTIVIDAD 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UADER\Tercero\Probabilidad y Estadistica\Guia 1\ACTIVIDADES\ACTIVIDAD 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91249B0C-091C-415E-A0E5-1A1887331547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B57FD0-2FB5-4649-A6AF-2522A08B0AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2498C395-65F2-4DD7-B4AB-EFB51FB7D86C}"/>
+    <workbookView xWindow="4035" yWindow="5310" windowWidth="22365" windowHeight="8880" xr2:uid="{2498C395-65F2-4DD7-B4AB-EFB51FB7D86C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -60,25 +60,25 @@
     <t>D8</t>
   </si>
   <si>
-    <t>Q1 y P25: El 25% de el diametros de las tortas estuvieron por debajo de los 14.2 cm</t>
-  </si>
-  <si>
-    <t>Q3: El 75%  de el diametro de las tortas estuvierron por debajo de los 18  cm</t>
-  </si>
-  <si>
-    <t>D1: El 10%  de el diametro de las tortas estuvierron por debajo de los 12  cm</t>
-  </si>
-  <si>
-    <t>D8: El 80%  de el diametro de las tortas estuvierron por debajo de los 19  cm</t>
-  </si>
-  <si>
-    <t>P78: El 78%  de el diametro de las tortas estuvierron por debajo de los 19  cm</t>
-  </si>
-  <si>
     <t>Coeficiente de sesgo</t>
   </si>
   <si>
     <t>Como el coeficiente es positivo, la distribucion es asimetrica por derecha</t>
+  </si>
+  <si>
+    <t>Q1 y P25: El 25% del diametros de las tortas estuvieron por debajo de los 14.2 cm</t>
+  </si>
+  <si>
+    <t>Q3: El 75%  del diametro de las tortas estuvierron por debajo de los 18  cm</t>
+  </si>
+  <si>
+    <t>D1: El 10%  del diametro de las tortas estuvierron por debajo de los 12  cm</t>
+  </si>
+  <si>
+    <t>D8: El 80%  del diametro de las tortas estuvierron por debajo de los 19  cm</t>
+  </si>
+  <si>
+    <t>P78: El 78%  del diametro de las tortas estuvierron por debajo de los 19  cm</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +548,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -559,7 +559,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -571,7 +571,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -594,7 +594,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -605,7 +605,7 @@
     </row>
     <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -627,7 +627,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
